--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.51411174374402</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H2">
-        <v>3.51411174374402</v>
+        <v>11.731391</v>
       </c>
       <c r="I2">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J2">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.24629791851254</v>
+        <v>1.027778333333333</v>
       </c>
       <c r="N2">
-        <v>7.24629791851254</v>
+        <v>3.083335</v>
       </c>
       <c r="O2">
-        <v>0.6233094716663496</v>
+        <v>0.08020467841353289</v>
       </c>
       <c r="P2">
-        <v>0.6233094716663496</v>
+        <v>0.08020467841353289</v>
       </c>
       <c r="Q2">
-        <v>25.46430061411276</v>
+        <v>4.019089829887221</v>
       </c>
       <c r="R2">
-        <v>25.46430061411276</v>
+        <v>36.17180846898499</v>
       </c>
       <c r="S2">
-        <v>0.01466349114364238</v>
+        <v>0.00207289987435012</v>
       </c>
       <c r="T2">
-        <v>0.01466349114364238</v>
+        <v>0.00207289987435012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.51411174374402</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H3">
-        <v>3.51411174374402</v>
+        <v>11.731391</v>
       </c>
       <c r="I3">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J3">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37922398979467</v>
+        <v>7.273511666666667</v>
       </c>
       <c r="N3">
-        <v>4.37922398979467</v>
+        <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.3766905283336504</v>
+        <v>0.567602609669802</v>
       </c>
       <c r="P3">
-        <v>0.3766905283336504</v>
+        <v>0.567602609669802</v>
       </c>
       <c r="Q3">
-        <v>15.38908245102299</v>
+        <v>28.44280310157611</v>
       </c>
       <c r="R3">
-        <v>15.38908245102299</v>
+        <v>255.985227914185</v>
       </c>
       <c r="S3">
-        <v>0.008861726762065264</v>
+        <v>0.01466975993842784</v>
       </c>
       <c r="T3">
-        <v>0.008861726762065264</v>
+        <v>0.01466975993842784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.809569656664</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H4">
-        <v>123.809569656664</v>
+        <v>11.731391</v>
       </c>
       <c r="I4">
-        <v>0.82884305263489</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J4">
-        <v>0.82884305263489</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.24629791851254</v>
+        <v>4.513153666666667</v>
       </c>
       <c r="N4">
-        <v>7.24629791851254</v>
+        <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.6233094716663496</v>
+        <v>0.3521927119166651</v>
       </c>
       <c r="P4">
-        <v>0.6233094716663496</v>
+        <v>0.3521927119166651</v>
       </c>
       <c r="Q4">
-        <v>897.1610268950177</v>
+        <v>17.64852343558344</v>
       </c>
       <c r="R4">
-        <v>897.1610268950177</v>
+        <v>158.836710920251</v>
       </c>
       <c r="S4">
-        <v>0.5166257252321778</v>
+        <v>0.009102464378884668</v>
       </c>
       <c r="T4">
-        <v>0.5166257252321778</v>
+        <v>0.009102464378884666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.809569656664</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H5">
-        <v>123.809569656664</v>
+        <v>375.035965</v>
       </c>
       <c r="I5">
-        <v>0.82884305263489</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J5">
-        <v>0.82884305263489</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.37922398979467</v>
+        <v>1.027778333333333</v>
       </c>
       <c r="N5">
-        <v>4.37922398979467</v>
+        <v>3.083335</v>
       </c>
       <c r="O5">
-        <v>0.3766905283336504</v>
+        <v>0.08020467841353289</v>
       </c>
       <c r="P5">
-        <v>0.3766905283336504</v>
+        <v>0.08020467841353289</v>
       </c>
       <c r="Q5">
-        <v>542.1898376066172</v>
+        <v>128.4846130159195</v>
       </c>
       <c r="R5">
-        <v>542.1898376066172</v>
+        <v>1156.361517143275</v>
       </c>
       <c r="S5">
-        <v>0.3122173274027123</v>
+        <v>0.06626767488401641</v>
       </c>
       <c r="T5">
-        <v>0.3122173274027123</v>
+        <v>0.06626767488401641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.0526924053127</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H6">
-        <v>22.0526924053127</v>
+        <v>375.035965</v>
       </c>
       <c r="I6">
-        <v>0.1476317294594022</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J6">
-        <v>0.1476317294594022</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.24629791851254</v>
+        <v>7.273511666666667</v>
       </c>
       <c r="N6">
-        <v>7.24629791851254</v>
+        <v>21.820535</v>
       </c>
       <c r="O6">
-        <v>0.6233094716663496</v>
+        <v>0.567602609669802</v>
       </c>
       <c r="P6">
-        <v>0.6233094716663496</v>
+        <v>0.567602609669802</v>
       </c>
       <c r="Q6">
-        <v>159.8003790742147</v>
+        <v>909.2761556156973</v>
       </c>
       <c r="R6">
-        <v>159.8003790742147</v>
+        <v>8183.485400541275</v>
       </c>
       <c r="S6">
-        <v>0.09202025529052947</v>
+        <v>0.4689714608290377</v>
       </c>
       <c r="T6">
-        <v>0.09202025529052947</v>
+        <v>0.4689714608290378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0526924053127</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H7">
-        <v>22.0526924053127</v>
+        <v>375.035965</v>
       </c>
       <c r="I7">
-        <v>0.1476317294594022</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J7">
-        <v>0.1476317294594022</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.37922398979467</v>
+        <v>4.513153666666667</v>
       </c>
       <c r="N7">
-        <v>4.37922398979467</v>
+        <v>13.539461</v>
       </c>
       <c r="O7">
-        <v>0.3766905283336504</v>
+        <v>0.3521927119166651</v>
       </c>
       <c r="P7">
-        <v>0.3766905283336504</v>
+        <v>0.3521927119166651</v>
       </c>
       <c r="Q7">
-        <v>96.57367962090809</v>
+        <v>564.1983135238739</v>
       </c>
       <c r="R7">
-        <v>96.57367962090809</v>
+        <v>5077.784821714865</v>
       </c>
       <c r="S7">
-        <v>0.05561147416887276</v>
+        <v>0.2909929020533999</v>
       </c>
       <c r="T7">
-        <v>0.05561147416887276</v>
+        <v>0.2909929020533999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.381277</v>
+      </c>
+      <c r="H8">
+        <v>67.14383099999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1479228380418832</v>
+      </c>
+      <c r="J8">
+        <v>0.1479228380418833</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.027778333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.083335</v>
+      </c>
+      <c r="O8">
+        <v>0.08020467841353289</v>
+      </c>
+      <c r="P8">
+        <v>0.08020467841353289</v>
+      </c>
+      <c r="Q8">
+        <v>23.00299157293166</v>
+      </c>
+      <c r="R8">
+        <v>207.026924156385</v>
+      </c>
+      <c r="S8">
+        <v>0.01186410365516635</v>
+      </c>
+      <c r="T8">
+        <v>0.01186410365516636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.381277</v>
+      </c>
+      <c r="H9">
+        <v>67.14383099999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1479228380418832</v>
+      </c>
+      <c r="J9">
+        <v>0.1479228380418833</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.273511666666667</v>
+      </c>
+      <c r="N9">
+        <v>21.820535</v>
+      </c>
+      <c r="O9">
+        <v>0.567602609669802</v>
+      </c>
+      <c r="P9">
+        <v>0.567602609669802</v>
+      </c>
+      <c r="Q9">
+        <v>162.7904793743983</v>
+      </c>
+      <c r="R9">
+        <v>1465.114314369585</v>
+      </c>
+      <c r="S9">
+        <v>0.0839613889023364</v>
+      </c>
+      <c r="T9">
+        <v>0.08396138890233641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>22.381277</v>
+      </c>
+      <c r="H10">
+        <v>67.14383099999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1479228380418832</v>
+      </c>
+      <c r="J10">
+        <v>0.1479228380418833</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.513153666666667</v>
+      </c>
+      <c r="N10">
+        <v>13.539461</v>
+      </c>
+      <c r="O10">
+        <v>0.3521927119166651</v>
+      </c>
+      <c r="P10">
+        <v>0.3521927119166651</v>
+      </c>
+      <c r="Q10">
+        <v>101.0101423572323</v>
+      </c>
+      <c r="R10">
+        <v>909.0912812150908</v>
+      </c>
+      <c r="S10">
+        <v>0.0520973454843805</v>
+      </c>
+      <c r="T10">
+        <v>0.0520973454843805</v>
       </c>
     </row>
   </sheetData>
